--- a/biology/Zoologie/Gonyosoma_oxycephalum/Gonyosoma_oxycephalum.xlsx
+++ b/biology/Zoologie/Gonyosoma_oxycephalum/Gonyosoma_oxycephalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonyosoma oxycephalum, le Serpent ratier des mangroves[1] , ou Serpent ratier vert à queue rouge, est une espèce de serpents de la famille des Colubridae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonyosoma oxycephalum, le Serpent ratier des mangroves , ou Serpent ratier vert à queue rouge, est une espèce de serpents de la famille des Colubridae.
 Ce serpent peut mordre l'homme, mais il n'est pas dangereux.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le serpent ratier à queue rouge se trouve dans les forêts tropicales, dans les jungles de basse altitude, dans les terres agricoles et dans les forêts de mangrove.
-Cette espèce se rencontre en Asie du Sud-Est et notamment en Birmanie, au Cambodge, en Inde dans les îles Andaman, en Indonésie, au Laos, en Malaisie, aux Philippines, à Singapour, en Thaïlande et au Viêt Nam[2],[3].
+Cette espèce se rencontre en Asie du Sud-Est et notamment en Birmanie, au Cambodge, en Inde dans les îles Andaman, en Indonésie, au Laos, en Malaisie, aux Philippines, à Singapour, en Thaïlande et au Viêt Nam,.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonyosoma oxycephalum mesure de 1,6 à 2,3 m.
-Son corps est vert devenant violet à son extrémité caudale avec des écailles bordées de noir. Le dessus de la tête est vert et séparé du dessous de couleur vert clair à jaune par une ligne noire horizontale passant au niveau des yeux. La jonction entre le corps et la queue peut présenter quelques écailles jaunes[4].
-Sa langue est bleue et il présente un point bleu foncé à l'intérieur de sa gueule[5].
-Des cas de variation de couleur où Gonyosoma oxycephalum est globalement gris peuvent être rencontrés[4].
+Son corps est vert devenant violet à son extrémité caudale avec des écailles bordées de noir. Le dessus de la tête est vert et séparé du dessous de couleur vert clair à jaune par une ligne noire horizontale passant au niveau des yeux. La jonction entre le corps et la queue peut présenter quelques écailles jaunes.
+Sa langue est bleue et il présente un point bleu foncé à l'intérieur de sa gueule.
+Des cas de variation de couleur où Gonyosoma oxycephalum est globalement gris peuvent être rencontrés.
 </t>
         </is>
       </c>
@@ -578,11 +594,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce arboricole des forêts tropicales très active en journée.
-Il mange dans les arbres des oiseaux et des petits mammifères dont des chauves-souris et se nourrit aussi de rats, de souris et de lézards[6].
-L'accouplement de ce serpent se déroule dans les branches des arbres[7].
+Il mange dans les arbres des oiseaux et des petits mammifères dont des chauves-souris et se nourrit aussi de rats, de souris et de lézards.
+L'accouplement de ce serpent se déroule dans les branches des arbres.
 </t>
         </is>
       </c>
